--- a/src/main/resources/fileTemplate/Financial Planning_v1.0.xlsx
+++ b/src/main/resources/fileTemplate/Financial Planning_v1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\fin-planning-backend\src\main\resources\fileTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79AE1CA-17C8-4D3D-999B-C05BB9FDFA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A825F7-7C86-4DCE-9B05-8876ECDC1246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>DATE</t>
   </si>
@@ -43,31 +43,16 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Delivery</t>
-  </si>
-  <si>
-    <t>Digital &amp; Technology</t>
-  </si>
-  <si>
     <t>HR</t>
   </si>
   <si>
-    <t>Sales</t>
-  </si>
-  <si>
     <t>Marketing</t>
-  </si>
-  <si>
-    <t>Consulting</t>
   </si>
   <si>
     <t>Department</t>
   </si>
   <si>
     <t>Department Name</t>
-  </si>
-  <si>
-    <t>Automotive &amp; Manufacturing</t>
   </si>
   <si>
     <t>SUPPLIER NAME</t>
@@ -106,55 +91,7 @@
     <t>Cost Type</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>Non-Recurring</t>
-  </si>
-  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Supplier Name</t>
-  </si>
-  <si>
-    <t>Supplier Name 1</t>
-  </si>
-  <si>
-    <t>Supplier Name 2</t>
-  </si>
-  <si>
-    <t>Supplier Name 3</t>
-  </si>
-  <si>
-    <t>Supplier Name 4</t>
-  </si>
-  <si>
-    <t>Supplier Name 5</t>
-  </si>
-  <si>
-    <t>Advertising</t>
-  </si>
-  <si>
-    <t>Payroll</t>
-  </si>
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>Project Name 1</t>
-  </si>
-  <si>
-    <t>Project Name 2</t>
-  </si>
-  <si>
-    <t>Project Name 3</t>
-  </si>
-  <si>
-    <t>Project Name 4</t>
-  </si>
-  <si>
-    <t>Project Name 5</t>
   </si>
   <si>
     <t>VND</t>
@@ -165,14 +102,64 @@
   <si>
     <t>STATUS</t>
   </si>
+  <si>
+    <t>Indirect Costs.</t>
+  </si>
+  <si>
+    <t>Administration Costs.</t>
+  </si>
+  <si>
+    <t>Operating Costs.</t>
+  </si>
+  <si>
+    <t>Maintenance Costs.</t>
+  </si>
+  <si>
+    <t>Manufacturing costs</t>
+  </si>
+  <si>
+    <t>Direct Costs.</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Waiting for approval</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Denied</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.000\ [$₫-42A];\-#,##0.000\ [$₫-42A]"/>
+    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -272,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -311,6 +298,29 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -594,14 +604,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="20.5546875" customWidth="1"/>
     <col min="5" max="5" width="18.5546875" customWidth="1"/>
@@ -617,40 +627,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>23</v>
+      <c r="B1" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -660,39 +670,39 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -714,7 +724,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -736,7 +746,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -758,7 +768,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -780,7 +790,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -802,7 +812,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="6"/>
@@ -824,7 +834,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -846,7 +856,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
@@ -868,7 +878,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -890,7 +900,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="6"/>
@@ -912,7 +922,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -934,7 +944,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="6"/>
@@ -956,7 +966,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -978,7 +988,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
@@ -1000,7 +1010,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1022,7 +1032,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="6"/>
@@ -1044,7 +1054,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1066,7 +1076,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="6"/>
@@ -1088,7 +1098,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1110,7 +1120,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
@@ -1132,7 +1142,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1154,7 +1164,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
@@ -1176,7 +1186,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1198,7 +1208,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
@@ -1220,7 +1230,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1242,7 +1252,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="6"/>
@@ -1264,7 +1274,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1286,7 +1296,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="6"/>
@@ -1308,7 +1318,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1330,7 +1340,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="6"/>
@@ -1352,7 +1362,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1374,7 +1384,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="6"/>
@@ -1396,7 +1406,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1418,7 +1428,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="6"/>
@@ -1440,7 +1450,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1462,7 +1472,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="6"/>
@@ -1484,7 +1494,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1506,7 +1516,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="6"/>
@@ -1528,7 +1538,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1550,7 +1560,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="6"/>
@@ -1572,7 +1582,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -1594,7 +1604,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="6"/>
@@ -1616,7 +1626,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -1638,7 +1648,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="6"/>
@@ -1660,7 +1670,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -1682,7 +1692,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="6"/>
@@ -1704,7 +1714,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -1726,7 +1736,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="6"/>
@@ -1748,7 +1758,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -1770,7 +1780,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="6"/>
@@ -1792,7 +1802,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -1814,7 +1824,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="6"/>
@@ -1836,7 +1846,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -1858,7 +1868,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="6"/>
@@ -1880,7 +1890,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -1902,7 +1912,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="6"/>
@@ -1924,7 +1934,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -1946,7 +1956,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="6"/>
@@ -1968,7 +1978,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -1990,7 +2000,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="6"/>
@@ -2012,7 +2022,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -2034,7 +2044,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="6"/>
@@ -2056,7 +2066,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -2078,7 +2088,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="6"/>
@@ -2100,7 +2110,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -2122,7 +2132,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="6"/>
@@ -2144,7 +2154,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -2166,7 +2176,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="6"/>
@@ -2188,7 +2198,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -2210,7 +2220,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="6"/>
@@ -2232,7 +2242,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -2254,7 +2264,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="6"/>
@@ -2276,7 +2286,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -2298,7 +2308,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="6"/>
@@ -2320,7 +2330,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -2342,7 +2352,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="6"/>
@@ -2364,7 +2374,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -2386,7 +2396,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="6"/>
@@ -2408,7 +2418,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -2430,7 +2440,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="6"/>
@@ -2452,7 +2462,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -2474,7 +2484,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
+      <c r="B84" s="19"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="6"/>
@@ -2496,7 +2506,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -2518,7 +2528,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
+      <c r="B86" s="19"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="6"/>
@@ -2540,7 +2550,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -2562,7 +2572,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
+      <c r="B88" s="19"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="6"/>
@@ -2584,7 +2594,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -2606,7 +2616,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
+      <c r="B90" s="19"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="6"/>
@@ -2628,7 +2638,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -2650,7 +2660,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="6"/>
@@ -2672,7 +2682,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -2694,7 +2704,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
+      <c r="B94" s="19"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="6"/>
@@ -2716,7 +2726,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -2738,7 +2748,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
+      <c r="B96" s="19"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="6"/>
@@ -2760,7 +2770,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
@@ -2782,7 +2792,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="6"/>
@@ -2804,7 +2814,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -2826,7 +2836,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
+      <c r="B100" s="19"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="6"/>
@@ -2848,7 +2858,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -2870,7 +2880,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
+      <c r="B102" s="19"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="6"/>
@@ -2892,7 +2902,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
@@ -2914,7 +2924,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
+      <c r="B104" s="19"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="6"/>
@@ -2936,7 +2946,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -2958,7 +2968,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
+      <c r="B106" s="19"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="6"/>
@@ -2980,7 +2990,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -3002,7 +3012,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
+      <c r="B108" s="19"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="6"/>
@@ -3024,7 +3034,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -3046,7 +3056,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="6"/>
@@ -3068,7 +3078,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -3090,7 +3100,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
+      <c r="B112" s="19"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="6"/>
@@ -3112,7 +3122,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -3134,7 +3144,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="6"/>
@@ -3156,7 +3166,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -3178,7 +3188,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
+      <c r="B116" s="19"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="6"/>
@@ -3200,7 +3210,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -3222,7 +3232,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
+      <c r="B118" s="19"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="6"/>
@@ -3244,7 +3254,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -3266,7 +3276,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
+      <c r="B120" s="19"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="6"/>
@@ -3288,7 +3298,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -3310,7 +3320,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="6"/>
@@ -3332,7 +3342,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -3354,7 +3364,7 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
+      <c r="B124" s="19"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="6"/>
@@ -3376,7 +3386,7 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -3398,7 +3408,7 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
+      <c r="B126" s="19"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="6"/>
@@ -3420,7 +3430,7 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -3442,7 +3452,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
+      <c r="B128" s="19"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="6"/>
@@ -3464,7 +3474,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -3486,7 +3496,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="6"/>
@@ -3508,7 +3518,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -3530,7 +3540,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
+      <c r="B132" s="19"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="6"/>
@@ -3552,7 +3562,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -3574,7 +3584,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="6"/>
@@ -3596,7 +3606,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -3618,7 +3628,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
+      <c r="B136" s="19"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="6"/>
@@ -3640,7 +3650,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -3662,7 +3672,7 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="6"/>
@@ -3684,7 +3694,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -3706,7 +3716,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="7"/>
-      <c r="B140" s="7"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="6"/>
@@ -3728,7 +3738,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -3750,7 +3760,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
-      <c r="B142" s="7"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="6"/>
@@ -3772,7 +3782,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -3794,7 +3804,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
-      <c r="B144" s="7"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="6"/>
@@ -3816,7 +3826,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
+      <c r="B145" s="20"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -3838,7 +3848,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="6"/>
@@ -3860,7 +3870,7 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -3882,7 +3892,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
+      <c r="B148" s="19"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="6"/>
@@ -3904,7 +3914,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -3926,7 +3936,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
+      <c r="B150" s="19"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="6"/>
@@ -3948,7 +3958,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -3970,7 +3980,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
-      <c r="B152" s="7"/>
+      <c r="B152" s="19"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="6"/>
@@ -3992,7 +4002,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -4014,7 +4024,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
+      <c r="B154" s="19"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="6"/>
@@ -4036,7 +4046,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -4058,7 +4068,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
+      <c r="B156" s="19"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="6"/>
@@ -4080,7 +4090,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -4102,7 +4112,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
+      <c r="B158" s="19"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="6"/>
@@ -4124,7 +4134,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -4146,7 +4156,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
-      <c r="B160" s="7"/>
+      <c r="B160" s="19"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="6"/>
@@ -4168,7 +4178,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -4190,7 +4200,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
+      <c r="B162" s="19"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="6"/>
@@ -4212,7 +4222,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -4234,7 +4244,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
+      <c r="B164" s="19"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="6"/>
@@ -4256,7 +4266,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -4278,7 +4288,7 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
+      <c r="B166" s="19"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="6"/>
@@ -4300,7 +4310,7 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -4322,7 +4332,7 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
+      <c r="B168" s="19"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="6"/>
@@ -4344,7 +4354,7 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -4366,7 +4376,7 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
+      <c r="B170" s="19"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="6"/>
@@ -4388,7 +4398,7 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -4410,7 +4420,7 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
+      <c r="B172" s="19"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="6"/>
@@ -4432,7 +4442,7 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -4454,7 +4464,7 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
+      <c r="B174" s="19"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="6"/>
@@ -4476,7 +4486,7 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
@@ -4498,7 +4508,7 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
-      <c r="B176" s="7"/>
+      <c r="B176" s="19"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="6"/>
@@ -4520,7 +4530,7 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
-      <c r="B177" s="4"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
@@ -4542,7 +4552,7 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
-      <c r="B178" s="7"/>
+      <c r="B178" s="19"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="6"/>
@@ -4564,7 +4574,7 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
-      <c r="B179" s="4"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
@@ -4586,7 +4596,7 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
-      <c r="B180" s="7"/>
+      <c r="B180" s="19"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="6"/>
@@ -4608,7 +4618,7 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="4"/>
-      <c r="B181" s="4"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -4630,7 +4640,7 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
-      <c r="B182" s="7"/>
+      <c r="B182" s="19"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="6"/>
@@ -4652,7 +4662,7 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
-      <c r="B183" s="4"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
@@ -4674,7 +4684,7 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
-      <c r="B184" s="7"/>
+      <c r="B184" s="19"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="6"/>
@@ -4696,7 +4706,7 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="4"/>
-      <c r="B185" s="4"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
@@ -4718,7 +4728,7 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
-      <c r="B186" s="7"/>
+      <c r="B186" s="19"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="6"/>
@@ -4740,7 +4750,7 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
-      <c r="B187" s="4"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
@@ -4762,7 +4772,7 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
-      <c r="B188" s="7"/>
+      <c r="B188" s="19"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="6"/>
@@ -4784,7 +4794,7 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
-      <c r="B189" s="4"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -4806,7 +4816,7 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
-      <c r="B190" s="7"/>
+      <c r="B190" s="19"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="6"/>
@@ -4828,7 +4838,7 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
-      <c r="B191" s="4"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -4850,7 +4860,7 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
-      <c r="B192" s="7"/>
+      <c r="B192" s="19"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="6"/>
@@ -4872,7 +4882,7 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" s="4"/>
-      <c r="B193" s="4"/>
+      <c r="B193" s="20"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
@@ -4894,7 +4904,7 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
-      <c r="B194" s="7"/>
+      <c r="B194" s="19"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="6"/>
@@ -4916,7 +4926,7 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
-      <c r="B195" s="4"/>
+      <c r="B195" s="20"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
@@ -4938,7 +4948,7 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
-      <c r="B196" s="7"/>
+      <c r="B196" s="19"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="6"/>
@@ -4960,7 +4970,7 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
-      <c r="B197" s="4"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
@@ -4982,7 +4992,7 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
-      <c r="B198" s="7"/>
+      <c r="B198" s="19"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="6"/>
@@ -5004,7 +5014,7 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
-      <c r="B199" s="4"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
@@ -5026,7 +5036,7 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
-      <c r="B200" s="7"/>
+      <c r="B200" s="19"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="6"/>
@@ -5048,7 +5058,7 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" s="4"/>
-      <c r="B201" s="4"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
@@ -5070,7 +5080,7 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
-      <c r="B202" s="7"/>
+      <c r="B202" s="19"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="6"/>
@@ -5092,7 +5102,7 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
@@ -5114,7 +5124,7 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
-      <c r="B204" s="7"/>
+      <c r="B204" s="19"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="6"/>
@@ -5136,7 +5146,7 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
-      <c r="B205" s="4"/>
+      <c r="B205" s="20"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
@@ -5158,7 +5168,7 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
-      <c r="B206" s="7"/>
+      <c r="B206" s="19"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="6"/>
@@ -5180,7 +5190,7 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
-      <c r="B207" s="4"/>
+      <c r="B207" s="20"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
@@ -5202,7 +5212,7 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
-      <c r="B208" s="7"/>
+      <c r="B208" s="19"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="6"/>
@@ -5224,7 +5234,7 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" s="4"/>
-      <c r="B209" s="4"/>
+      <c r="B209" s="20"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
@@ -5246,7 +5256,7 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
-      <c r="B210" s="7"/>
+      <c r="B210" s="19"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="6"/>
@@ -5268,7 +5278,7 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="4"/>
-      <c r="B211" s="4"/>
+      <c r="B211" s="20"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
@@ -5290,7 +5300,7 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" s="7"/>
-      <c r="B212" s="7"/>
+      <c r="B212" s="19"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="6"/>
@@ -5312,7 +5322,7 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" s="4"/>
-      <c r="B213" s="4"/>
+      <c r="B213" s="20"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
@@ -5334,7 +5344,7 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
-      <c r="B214" s="7"/>
+      <c r="B214" s="19"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="6"/>
@@ -5356,7 +5366,7 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="4"/>
-      <c r="B215" s="4"/>
+      <c r="B215" s="20"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
@@ -5378,7 +5388,7 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
-      <c r="B216" s="7"/>
+      <c r="B216" s="19"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="6"/>
@@ -5400,7 +5410,7 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" s="4"/>
-      <c r="B217" s="4"/>
+      <c r="B217" s="20"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
@@ -5422,7 +5432,7 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
-      <c r="B218" s="7"/>
+      <c r="B218" s="19"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="6"/>
@@ -5444,7 +5454,7 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" s="4"/>
-      <c r="B219" s="4"/>
+      <c r="B219" s="20"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
@@ -5466,7 +5476,7 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
-      <c r="B220" s="7"/>
+      <c r="B220" s="19"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="6"/>
@@ -5488,7 +5498,7 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" s="4"/>
-      <c r="B221" s="4"/>
+      <c r="B221" s="20"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
@@ -5510,7 +5520,7 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" s="7"/>
-      <c r="B222" s="7"/>
+      <c r="B222" s="19"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="6"/>
@@ -5532,7 +5542,7 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" s="4"/>
-      <c r="B223" s="4"/>
+      <c r="B223" s="20"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
@@ -5554,7 +5564,7 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" s="7"/>
-      <c r="B224" s="7"/>
+      <c r="B224" s="19"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="6"/>
@@ -5576,7 +5586,7 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" s="4"/>
-      <c r="B225" s="4"/>
+      <c r="B225" s="20"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
@@ -5598,7 +5608,7 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" s="7"/>
-      <c r="B226" s="7"/>
+      <c r="B226" s="19"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="6"/>
@@ -5620,7 +5630,7 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
-      <c r="B227" s="4"/>
+      <c r="B227" s="20"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
@@ -5642,7 +5652,7 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
+      <c r="B228" s="19"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="6"/>
@@ -5664,7 +5674,7 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" s="4"/>
-      <c r="B229" s="4"/>
+      <c r="B229" s="20"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
@@ -5686,7 +5696,7 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
-      <c r="B230" s="7"/>
+      <c r="B230" s="19"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="6"/>
@@ -5708,7 +5718,7 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" s="4"/>
-      <c r="B231" s="4"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
@@ -5730,7 +5740,7 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
-      <c r="B232" s="7"/>
+      <c r="B232" s="19"/>
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="6"/>
@@ -5752,7 +5762,7 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
-      <c r="B233" s="4"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
@@ -5774,7 +5784,7 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
-      <c r="B234" s="7"/>
+      <c r="B234" s="19"/>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="6"/>
@@ -5796,7 +5806,7 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" s="4"/>
-      <c r="B235" s="4"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
@@ -5818,7 +5828,7 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
-      <c r="B236" s="7"/>
+      <c r="B236" s="19"/>
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="E236" s="6"/>
@@ -5840,7 +5850,7 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" s="4"/>
-      <c r="B237" s="4"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
@@ -5862,7 +5872,7 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
-      <c r="B238" s="7"/>
+      <c r="B238" s="19"/>
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="E238" s="6"/>
@@ -5884,7 +5894,7 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" s="4"/>
-      <c r="B239" s="4"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
@@ -5906,7 +5916,7 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
-      <c r="B240" s="7"/>
+      <c r="B240" s="19"/>
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="6"/>
@@ -5928,7 +5938,7 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" s="4"/>
-      <c r="B241" s="4"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
@@ -5950,7 +5960,7 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
-      <c r="B242" s="7"/>
+      <c r="B242" s="19"/>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="6"/>
@@ -5972,7 +5982,7 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" s="4"/>
-      <c r="B243" s="4"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
@@ -5994,7 +6004,7 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
-      <c r="B244" s="7"/>
+      <c r="B244" s="19"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="6"/>
@@ -6016,7 +6026,7 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" s="4"/>
-      <c r="B245" s="4"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
@@ -6038,7 +6048,7 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
+      <c r="B246" s="19"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="6"/>
@@ -6060,7 +6070,7 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" s="4"/>
-      <c r="B247" s="4"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
@@ -6082,7 +6092,7 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
-      <c r="B248" s="7"/>
+      <c r="B248" s="19"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="6"/>
@@ -6104,7 +6114,7 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
-      <c r="B249" s="4"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
@@ -6126,7 +6136,7 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
-      <c r="B250" s="7"/>
+      <c r="B250" s="19"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="6"/>
@@ -6148,7 +6158,7 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" s="4"/>
-      <c r="B251" s="4"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
@@ -6170,7 +6180,7 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
-      <c r="B252" s="7"/>
+      <c r="B252" s="19"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="6"/>
@@ -6192,7 +6202,7 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" s="4"/>
-      <c r="B253" s="4"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
@@ -6214,7 +6224,7 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
-      <c r="B254" s="7"/>
+      <c r="B254" s="19"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="6"/>
@@ -6236,7 +6246,7 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" s="4"/>
-      <c r="B255" s="4"/>
+      <c r="B255" s="20"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
@@ -6258,7 +6268,7 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
-      <c r="B256" s="7"/>
+      <c r="B256" s="19"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="6"/>
@@ -6280,7 +6290,7 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" s="4"/>
-      <c r="B257" s="4"/>
+      <c r="B257" s="20"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
@@ -6302,7 +6312,7 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
-      <c r="B258" s="7"/>
+      <c r="B258" s="19"/>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="6"/>
@@ -6324,7 +6334,7 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" s="4"/>
-      <c r="B259" s="4"/>
+      <c r="B259" s="20"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
@@ -6346,7 +6356,7 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" s="7"/>
-      <c r="B260" s="7"/>
+      <c r="B260" s="19"/>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="6"/>
@@ -6368,7 +6378,7 @@
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" s="4"/>
-      <c r="B261" s="4"/>
+      <c r="B261" s="20"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
@@ -6390,7 +6400,7 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" s="7"/>
-      <c r="B262" s="7"/>
+      <c r="B262" s="19"/>
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
       <c r="E262" s="6"/>
@@ -6412,7 +6422,7 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" s="4"/>
-      <c r="B263" s="4"/>
+      <c r="B263" s="20"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
@@ -6434,7 +6444,7 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" s="7"/>
-      <c r="B264" s="7"/>
+      <c r="B264" s="19"/>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="6"/>
@@ -6456,7 +6466,7 @@
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" s="4"/>
-      <c r="B265" s="4"/>
+      <c r="B265" s="20"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
@@ -6478,7 +6488,7 @@
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
-      <c r="B266" s="7"/>
+      <c r="B266" s="19"/>
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
       <c r="E266" s="6"/>
@@ -6500,7 +6510,7 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
-      <c r="B267" s="4"/>
+      <c r="B267" s="20"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
@@ -6522,7 +6532,7 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
-      <c r="B268" s="7"/>
+      <c r="B268" s="19"/>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
       <c r="E268" s="6"/>
@@ -6544,7 +6554,7 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" s="4"/>
-      <c r="B269" s="4"/>
+      <c r="B269" s="20"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
@@ -6566,7 +6576,7 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" s="7"/>
-      <c r="B270" s="7"/>
+      <c r="B270" s="19"/>
       <c r="C270" s="7"/>
       <c r="D270" s="7"/>
       <c r="E270" s="6"/>
@@ -6588,7 +6598,7 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" s="4"/>
-      <c r="B271" s="4"/>
+      <c r="B271" s="20"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
@@ -6610,7 +6620,7 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" s="7"/>
-      <c r="B272" s="7"/>
+      <c r="B272" s="19"/>
       <c r="C272" s="7"/>
       <c r="D272" s="7"/>
       <c r="E272" s="6"/>
@@ -6632,7 +6642,7 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" s="4"/>
-      <c r="B273" s="4"/>
+      <c r="B273" s="20"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
@@ -6654,7 +6664,7 @@
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
-      <c r="B274" s="7"/>
+      <c r="B274" s="19"/>
       <c r="C274" s="7"/>
       <c r="D274" s="7"/>
       <c r="E274" s="6"/>
@@ -6676,7 +6686,7 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" s="4"/>
-      <c r="B275" s="4"/>
+      <c r="B275" s="20"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
@@ -6698,7 +6708,7 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" s="7"/>
-      <c r="B276" s="7"/>
+      <c r="B276" s="19"/>
       <c r="C276" s="7"/>
       <c r="D276" s="7"/>
       <c r="E276" s="6"/>
@@ -6720,7 +6730,7 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" s="4"/>
-      <c r="B277" s="4"/>
+      <c r="B277" s="20"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
@@ -6742,7 +6752,7 @@
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
-      <c r="B278" s="7"/>
+      <c r="B278" s="19"/>
       <c r="C278" s="7"/>
       <c r="D278" s="7"/>
       <c r="E278" s="6"/>
@@ -6764,7 +6774,7 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" s="4"/>
-      <c r="B279" s="4"/>
+      <c r="B279" s="20"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
@@ -6786,7 +6796,7 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" s="7"/>
-      <c r="B280" s="7"/>
+      <c r="B280" s="19"/>
       <c r="C280" s="7"/>
       <c r="D280" s="7"/>
       <c r="E280" s="6"/>
@@ -6808,7 +6818,7 @@
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" s="4"/>
-      <c r="B281" s="4"/>
+      <c r="B281" s="20"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
@@ -6830,7 +6840,7 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" s="7"/>
-      <c r="B282" s="7"/>
+      <c r="B282" s="19"/>
       <c r="C282" s="7"/>
       <c r="D282" s="7"/>
       <c r="E282" s="6"/>
@@ -6852,7 +6862,7 @@
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
-      <c r="B283" s="4"/>
+      <c r="B283" s="20"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
@@ -6874,7 +6884,7 @@
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" s="7"/>
-      <c r="B284" s="7"/>
+      <c r="B284" s="19"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="6"/>
@@ -6896,7 +6906,7 @@
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" s="4"/>
-      <c r="B285" s="4"/>
+      <c r="B285" s="20"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
@@ -6918,7 +6928,7 @@
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" s="7"/>
-      <c r="B286" s="7"/>
+      <c r="B286" s="19"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="E286" s="6"/>
@@ -6940,7 +6950,7 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" s="4"/>
-      <c r="B287" s="4"/>
+      <c r="B287" s="20"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
@@ -6962,7 +6972,7 @@
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" s="7"/>
-      <c r="B288" s="7"/>
+      <c r="B288" s="19"/>
       <c r="C288" s="7"/>
       <c r="D288" s="7"/>
       <c r="E288" s="6"/>
@@ -6984,7 +6994,7 @@
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" s="4"/>
-      <c r="B289" s="4"/>
+      <c r="B289" s="20"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
@@ -7006,7 +7016,7 @@
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" s="7"/>
-      <c r="B290" s="7"/>
+      <c r="B290" s="19"/>
       <c r="C290" s="7"/>
       <c r="D290" s="7"/>
       <c r="E290" s="6"/>
@@ -7028,7 +7038,7 @@
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" s="4"/>
-      <c r="B291" s="4"/>
+      <c r="B291" s="20"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
@@ -7050,7 +7060,7 @@
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" s="7"/>
-      <c r="B292" s="7"/>
+      <c r="B292" s="19"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="6"/>
@@ -7072,7 +7082,7 @@
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" s="4"/>
-      <c r="B293" s="4"/>
+      <c r="B293" s="20"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
@@ -7094,7 +7104,7 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" s="7"/>
-      <c r="B294" s="7"/>
+      <c r="B294" s="19"/>
       <c r="C294" s="7"/>
       <c r="D294" s="7"/>
       <c r="E294" s="6"/>
@@ -7116,7 +7126,7 @@
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" s="4"/>
-      <c r="B295" s="4"/>
+      <c r="B295" s="20"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
@@ -7138,7 +7148,7 @@
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" s="7"/>
-      <c r="B296" s="7"/>
+      <c r="B296" s="19"/>
       <c r="C296" s="7"/>
       <c r="D296" s="7"/>
       <c r="E296" s="6"/>
@@ -7160,7 +7170,7 @@
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" s="4"/>
-      <c r="B297" s="4"/>
+      <c r="B297" s="20"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
@@ -7182,7 +7192,7 @@
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" s="7"/>
-      <c r="B298" s="7"/>
+      <c r="B298" s="19"/>
       <c r="C298" s="7"/>
       <c r="D298" s="7"/>
       <c r="E298" s="6"/>
@@ -7204,7 +7214,7 @@
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" s="4"/>
-      <c r="B299" s="4"/>
+      <c r="B299" s="20"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
@@ -7226,7 +7236,7 @@
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" s="7"/>
-      <c r="B300" s="7"/>
+      <c r="B300" s="19"/>
       <c r="C300" s="7"/>
       <c r="D300" s="7"/>
       <c r="E300" s="6"/>
@@ -7248,7 +7258,7 @@
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" s="4"/>
-      <c r="B301" s="4"/>
+      <c r="B301" s="20"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
@@ -7270,7 +7280,7 @@
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" s="7"/>
-      <c r="B302" s="7"/>
+      <c r="B302" s="19"/>
       <c r="C302" s="7"/>
       <c r="D302" s="7"/>
       <c r="E302" s="6"/>
@@ -7292,7 +7302,7 @@
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" s="4"/>
-      <c r="B303" s="4"/>
+      <c r="B303" s="20"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
@@ -7314,7 +7324,7 @@
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304" s="7"/>
-      <c r="B304" s="7"/>
+      <c r="B304" s="19"/>
       <c r="C304" s="7"/>
       <c r="D304" s="7"/>
       <c r="E304" s="6"/>
@@ -7336,7 +7346,7 @@
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" s="4"/>
-      <c r="B305" s="4"/>
+      <c r="B305" s="20"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
@@ -7358,7 +7368,7 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" s="7"/>
-      <c r="B306" s="7"/>
+      <c r="B306" s="19"/>
       <c r="C306" s="7"/>
       <c r="D306" s="7"/>
       <c r="E306" s="6"/>
@@ -7380,7 +7390,7 @@
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" s="4"/>
-      <c r="B307" s="4"/>
+      <c r="B307" s="20"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
@@ -7402,7 +7412,7 @@
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" s="7"/>
-      <c r="B308" s="7"/>
+      <c r="B308" s="19"/>
       <c r="C308" s="7"/>
       <c r="D308" s="7"/>
       <c r="E308" s="6"/>
@@ -7424,7 +7434,7 @@
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" s="4"/>
-      <c r="B309" s="4"/>
+      <c r="B309" s="20"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
@@ -7446,7 +7456,7 @@
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" s="7"/>
-      <c r="B310" s="7"/>
+      <c r="B310" s="19"/>
       <c r="C310" s="7"/>
       <c r="D310" s="7"/>
       <c r="E310" s="6"/>
@@ -7468,7 +7478,7 @@
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" s="4"/>
-      <c r="B311" s="4"/>
+      <c r="B311" s="20"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
@@ -7490,7 +7500,7 @@
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" s="7"/>
-      <c r="B312" s="7"/>
+      <c r="B312" s="19"/>
       <c r="C312" s="7"/>
       <c r="D312" s="7"/>
       <c r="E312" s="6"/>
@@ -7512,7 +7522,7 @@
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" s="4"/>
-      <c r="B313" s="4"/>
+      <c r="B313" s="20"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
@@ -7534,7 +7544,7 @@
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" s="7"/>
-      <c r="B314" s="7"/>
+      <c r="B314" s="19"/>
       <c r="C314" s="7"/>
       <c r="D314" s="7"/>
       <c r="E314" s="6"/>
@@ -7556,7 +7566,7 @@
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" s="4"/>
-      <c r="B315" s="4"/>
+      <c r="B315" s="20"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
@@ -7578,7 +7588,7 @@
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" s="7"/>
-      <c r="B316" s="7"/>
+      <c r="B316" s="19"/>
       <c r="C316" s="7"/>
       <c r="D316" s="7"/>
       <c r="E316" s="6"/>
@@ -7600,7 +7610,7 @@
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" s="4"/>
-      <c r="B317" s="4"/>
+      <c r="B317" s="20"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
@@ -7622,7 +7632,7 @@
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318" s="7"/>
-      <c r="B318" s="7"/>
+      <c r="B318" s="19"/>
       <c r="C318" s="7"/>
       <c r="D318" s="7"/>
       <c r="E318" s="6"/>
@@ -7644,7 +7654,7 @@
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" s="4"/>
-      <c r="B319" s="4"/>
+      <c r="B319" s="20"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
@@ -7666,7 +7676,7 @@
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320" s="7"/>
-      <c r="B320" s="7"/>
+      <c r="B320" s="19"/>
       <c r="C320" s="7"/>
       <c r="D320" s="7"/>
       <c r="E320" s="6"/>
@@ -7688,7 +7698,7 @@
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" s="4"/>
-      <c r="B321" s="4"/>
+      <c r="B321" s="20"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
@@ -7710,7 +7720,7 @@
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" s="7"/>
-      <c r="B322" s="7"/>
+      <c r="B322" s="19"/>
       <c r="C322" s="7"/>
       <c r="D322" s="7"/>
       <c r="E322" s="6"/>
@@ -7732,7 +7742,7 @@
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" s="4"/>
-      <c r="B323" s="4"/>
+      <c r="B323" s="20"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
@@ -7754,7 +7764,7 @@
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" s="7"/>
-      <c r="B324" s="7"/>
+      <c r="B324" s="19"/>
       <c r="C324" s="7"/>
       <c r="D324" s="7"/>
       <c r="E324" s="6"/>
@@ -7776,7 +7786,7 @@
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" s="4"/>
-      <c r="B325" s="4"/>
+      <c r="B325" s="20"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -7798,7 +7808,7 @@
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326" s="7"/>
-      <c r="B326" s="7"/>
+      <c r="B326" s="19"/>
       <c r="C326" s="7"/>
       <c r="D326" s="7"/>
       <c r="E326" s="6"/>
@@ -7820,7 +7830,7 @@
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327" s="4"/>
-      <c r="B327" s="4"/>
+      <c r="B327" s="20"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -7842,7 +7852,7 @@
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328" s="7"/>
-      <c r="B328" s="7"/>
+      <c r="B328" s="19"/>
       <c r="C328" s="7"/>
       <c r="D328" s="7"/>
       <c r="E328" s="6"/>
@@ -7864,7 +7874,7 @@
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329" s="4"/>
-      <c r="B329" s="4"/>
+      <c r="B329" s="20"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -7886,7 +7896,7 @@
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330" s="7"/>
-      <c r="B330" s="7"/>
+      <c r="B330" s="19"/>
       <c r="C330" s="7"/>
       <c r="D330" s="7"/>
       <c r="E330" s="6"/>
@@ -7908,7 +7918,7 @@
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331" s="4"/>
-      <c r="B331" s="4"/>
+      <c r="B331" s="20"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -7930,7 +7940,7 @@
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332" s="7"/>
-      <c r="B332" s="7"/>
+      <c r="B332" s="19"/>
       <c r="C332" s="7"/>
       <c r="D332" s="7"/>
       <c r="E332" s="6"/>
@@ -7952,7 +7962,7 @@
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333" s="4"/>
-      <c r="B333" s="4"/>
+      <c r="B333" s="20"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -7974,7 +7984,7 @@
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334" s="7"/>
-      <c r="B334" s="7"/>
+      <c r="B334" s="19"/>
       <c r="C334" s="7"/>
       <c r="D334" s="7"/>
       <c r="E334" s="6"/>
@@ -7996,7 +8006,7 @@
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335" s="4"/>
-      <c r="B335" s="4"/>
+      <c r="B335" s="20"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -8018,7 +8028,7 @@
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336" s="7"/>
-      <c r="B336" s="7"/>
+      <c r="B336" s="19"/>
       <c r="C336" s="7"/>
       <c r="D336" s="7"/>
       <c r="E336" s="6"/>
@@ -8040,7 +8050,7 @@
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337" s="4"/>
-      <c r="B337" s="4"/>
+      <c r="B337" s="20"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -8062,7 +8072,7 @@
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338" s="7"/>
-      <c r="B338" s="7"/>
+      <c r="B338" s="19"/>
       <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="E338" s="6"/>
@@ -8084,7 +8094,7 @@
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339" s="4"/>
-      <c r="B339" s="4"/>
+      <c r="B339" s="20"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
@@ -8106,7 +8116,7 @@
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A340" s="7"/>
-      <c r="B340" s="7"/>
+      <c r="B340" s="19"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="6"/>
@@ -8128,7 +8138,7 @@
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341" s="4"/>
-      <c r="B341" s="4"/>
+      <c r="B341" s="20"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
@@ -8150,7 +8160,7 @@
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A342" s="7"/>
-      <c r="B342" s="7"/>
+      <c r="B342" s="19"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="6"/>
@@ -8172,7 +8182,7 @@
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343" s="4"/>
-      <c r="B343" s="4"/>
+      <c r="B343" s="20"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
@@ -8194,7 +8204,7 @@
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A344" s="7"/>
-      <c r="B344" s="7"/>
+      <c r="B344" s="19"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="6"/>
@@ -8216,7 +8226,7 @@
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A345" s="4"/>
-      <c r="B345" s="4"/>
+      <c r="B345" s="20"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
@@ -8238,7 +8248,7 @@
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A346" s="7"/>
-      <c r="B346" s="7"/>
+      <c r="B346" s="19"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="6"/>
@@ -8260,7 +8270,7 @@
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347" s="4"/>
-      <c r="B347" s="4"/>
+      <c r="B347" s="20"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
@@ -8282,7 +8292,7 @@
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A348" s="7"/>
-      <c r="B348" s="7"/>
+      <c r="B348" s="19"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="6"/>
@@ -8304,7 +8314,7 @@
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349" s="4"/>
-      <c r="B349" s="4"/>
+      <c r="B349" s="20"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
@@ -8326,7 +8336,7 @@
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A350" s="7"/>
-      <c r="B350" s="7"/>
+      <c r="B350" s="19"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="6"/>
@@ -8348,7 +8358,7 @@
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A351" s="4"/>
-      <c r="B351" s="4"/>
+      <c r="B351" s="20"/>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
@@ -8370,7 +8380,7 @@
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A352" s="7"/>
-      <c r="B352" s="7"/>
+      <c r="B352" s="19"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="6"/>
@@ -8392,7 +8402,7 @@
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353" s="4"/>
-      <c r="B353" s="4"/>
+      <c r="B353" s="20"/>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
@@ -8414,7 +8424,7 @@
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354" s="7"/>
-      <c r="B354" s="7"/>
+      <c r="B354" s="19"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="6"/>
@@ -8436,7 +8446,7 @@
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355" s="4"/>
-      <c r="B355" s="4"/>
+      <c r="B355" s="20"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
@@ -8458,7 +8468,7 @@
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356" s="7"/>
-      <c r="B356" s="7"/>
+      <c r="B356" s="19"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="6"/>
@@ -8480,7 +8490,7 @@
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357" s="4"/>
-      <c r="B357" s="4"/>
+      <c r="B357" s="20"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
@@ -8502,7 +8512,7 @@
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358" s="7"/>
-      <c r="B358" s="7"/>
+      <c r="B358" s="19"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="6"/>
@@ -8524,7 +8534,7 @@
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359" s="4"/>
-      <c r="B359" s="4"/>
+      <c r="B359" s="20"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
@@ -8546,7 +8556,7 @@
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360" s="7"/>
-      <c r="B360" s="7"/>
+      <c r="B360" s="19"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="6"/>
@@ -8568,7 +8578,7 @@
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361" s="4"/>
-      <c r="B361" s="4"/>
+      <c r="B361" s="20"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
@@ -8590,7 +8600,7 @@
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362" s="7"/>
-      <c r="B362" s="7"/>
+      <c r="B362" s="19"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="6"/>
@@ -8612,7 +8622,7 @@
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363" s="4"/>
-      <c r="B363" s="4"/>
+      <c r="B363" s="20"/>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
@@ -8634,7 +8644,7 @@
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364" s="7"/>
-      <c r="B364" s="7"/>
+      <c r="B364" s="19"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="6"/>
@@ -8656,7 +8666,7 @@
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365" s="4"/>
-      <c r="B365" s="4"/>
+      <c r="B365" s="20"/>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
@@ -8678,7 +8688,7 @@
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366" s="7"/>
-      <c r="B366" s="7"/>
+      <c r="B366" s="19"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="6"/>
@@ -8700,7 +8710,7 @@
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367" s="4"/>
-      <c r="B367" s="4"/>
+      <c r="B367" s="20"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
@@ -8722,7 +8732,7 @@
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368" s="7"/>
-      <c r="B368" s="7"/>
+      <c r="B368" s="19"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="6"/>
@@ -8744,7 +8754,7 @@
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369" s="4"/>
-      <c r="B369" s="4"/>
+      <c r="B369" s="20"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
@@ -8766,7 +8776,7 @@
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A370" s="7"/>
-      <c r="B370" s="7"/>
+      <c r="B370" s="19"/>
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="6"/>
@@ -8788,7 +8798,7 @@
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371" s="4"/>
-      <c r="B371" s="4"/>
+      <c r="B371" s="20"/>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
@@ -8810,7 +8820,7 @@
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A372" s="7"/>
-      <c r="B372" s="7"/>
+      <c r="B372" s="19"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="6"/>
@@ -8832,7 +8842,7 @@
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373" s="4"/>
-      <c r="B373" s="4"/>
+      <c r="B373" s="20"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
@@ -8854,7 +8864,7 @@
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A374" s="7"/>
-      <c r="B374" s="7"/>
+      <c r="B374" s="19"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="6"/>
@@ -8876,7 +8886,7 @@
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375" s="4"/>
-      <c r="B375" s="4"/>
+      <c r="B375" s="20"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
@@ -8898,7 +8908,7 @@
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A376" s="7"/>
-      <c r="B376" s="7"/>
+      <c r="B376" s="19"/>
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="6"/>
@@ -8920,7 +8930,7 @@
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377" s="4"/>
-      <c r="B377" s="4"/>
+      <c r="B377" s="20"/>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
@@ -8942,7 +8952,7 @@
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378" s="7"/>
-      <c r="B378" s="7"/>
+      <c r="B378" s="19"/>
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="6"/>
@@ -8964,7 +8974,7 @@
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379" s="4"/>
-      <c r="B379" s="4"/>
+      <c r="B379" s="20"/>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
@@ -8986,7 +8996,7 @@
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380" s="7"/>
-      <c r="B380" s="7"/>
+      <c r="B380" s="19"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="6"/>
@@ -9008,7 +9018,7 @@
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381" s="4"/>
-      <c r="B381" s="4"/>
+      <c r="B381" s="20"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
@@ -9030,7 +9040,7 @@
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A382" s="7"/>
-      <c r="B382" s="7"/>
+      <c r="B382" s="19"/>
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="6"/>
@@ -9052,7 +9062,7 @@
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383" s="4"/>
-      <c r="B383" s="4"/>
+      <c r="B383" s="20"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
@@ -9074,7 +9084,7 @@
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A384" s="7"/>
-      <c r="B384" s="7"/>
+      <c r="B384" s="19"/>
       <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="6"/>
@@ -9096,7 +9106,7 @@
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385" s="4"/>
-      <c r="B385" s="4"/>
+      <c r="B385" s="20"/>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
@@ -9118,7 +9128,7 @@
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386" s="7"/>
-      <c r="B386" s="7"/>
+      <c r="B386" s="19"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="6"/>
@@ -9140,7 +9150,7 @@
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387" s="4"/>
-      <c r="B387" s="4"/>
+      <c r="B387" s="20"/>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
@@ -9162,7 +9172,7 @@
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388" s="7"/>
-      <c r="B388" s="7"/>
+      <c r="B388" s="19"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="6"/>
@@ -9184,7 +9194,7 @@
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389" s="4"/>
-      <c r="B389" s="4"/>
+      <c r="B389" s="20"/>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
@@ -9206,7 +9216,7 @@
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390" s="7"/>
-      <c r="B390" s="7"/>
+      <c r="B390" s="19"/>
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="6"/>
@@ -9228,7 +9238,7 @@
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391" s="4"/>
-      <c r="B391" s="4"/>
+      <c r="B391" s="20"/>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
@@ -9250,7 +9260,7 @@
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A392" s="7"/>
-      <c r="B392" s="7"/>
+      <c r="B392" s="19"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="6"/>
@@ -9272,7 +9282,7 @@
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393" s="4"/>
-      <c r="B393" s="4"/>
+      <c r="B393" s="20"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
@@ -9294,7 +9304,7 @@
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A394" s="7"/>
-      <c r="B394" s="7"/>
+      <c r="B394" s="19"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="6"/>
@@ -9316,7 +9326,7 @@
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A395" s="4"/>
-      <c r="B395" s="4"/>
+      <c r="B395" s="20"/>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
@@ -9338,7 +9348,7 @@
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A396" s="7"/>
-      <c r="B396" s="7"/>
+      <c r="B396" s="19"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="6"/>
@@ -9360,7 +9370,7 @@
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A397" s="4"/>
-      <c r="B397" s="4"/>
+      <c r="B397" s="20"/>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
@@ -9382,7 +9392,7 @@
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A398" s="7"/>
-      <c r="B398" s="7"/>
+      <c r="B398" s="19"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="6"/>
@@ -9404,7 +9414,7 @@
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A399" s="4"/>
-      <c r="B399" s="4"/>
+      <c r="B399" s="20"/>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
@@ -9426,7 +9436,7 @@
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A400" s="7"/>
-      <c r="B400" s="7"/>
+      <c r="B400" s="19"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="6"/>
@@ -9448,7 +9458,7 @@
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A401" s="4"/>
-      <c r="B401" s="4"/>
+      <c r="B401" s="20"/>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
@@ -9470,7 +9480,7 @@
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A402" s="7"/>
-      <c r="B402" s="7"/>
+      <c r="B402" s="19"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="6"/>
@@ -9492,7 +9502,7 @@
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A403" s="4"/>
-      <c r="B403" s="4"/>
+      <c r="B403" s="20"/>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
@@ -9514,7 +9524,7 @@
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A404" s="7"/>
-      <c r="B404" s="7"/>
+      <c r="B404" s="19"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="6"/>
@@ -9536,7 +9546,7 @@
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A405" s="4"/>
-      <c r="B405" s="4"/>
+      <c r="B405" s="20"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
@@ -9558,7 +9568,7 @@
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A406" s="7"/>
-      <c r="B406" s="7"/>
+      <c r="B406" s="19"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="6"/>
@@ -9580,7 +9590,7 @@
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A407" s="4"/>
-      <c r="B407" s="4"/>
+      <c r="B407" s="20"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
@@ -9602,7 +9612,7 @@
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A408" s="7"/>
-      <c r="B408" s="7"/>
+      <c r="B408" s="19"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="6"/>
@@ -9624,7 +9634,7 @@
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A409" s="4"/>
-      <c r="B409" s="4"/>
+      <c r="B409" s="20"/>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
@@ -9646,7 +9656,7 @@
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A410" s="7"/>
-      <c r="B410" s="7"/>
+      <c r="B410" s="19"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="6"/>
@@ -9668,7 +9678,7 @@
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A411" s="4"/>
-      <c r="B411" s="4"/>
+      <c r="B411" s="20"/>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
@@ -9690,7 +9700,7 @@
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A412" s="7"/>
-      <c r="B412" s="7"/>
+      <c r="B412" s="19"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="6"/>
@@ -9712,7 +9722,7 @@
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A413" s="4"/>
-      <c r="B413" s="4"/>
+      <c r="B413" s="20"/>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
@@ -9734,7 +9744,7 @@
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A414" s="7"/>
-      <c r="B414" s="7"/>
+      <c r="B414" s="19"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="6"/>
@@ -9756,7 +9766,7 @@
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A415" s="4"/>
-      <c r="B415" s="4"/>
+      <c r="B415" s="20"/>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
@@ -9778,7 +9788,7 @@
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
+      <c r="B416" s="19"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="6"/>
@@ -9800,7 +9810,7 @@
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A417" s="4"/>
-      <c r="B417" s="4"/>
+      <c r="B417" s="20"/>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
@@ -9822,7 +9832,7 @@
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A418" s="7"/>
-      <c r="B418" s="7"/>
+      <c r="B418" s="19"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="6"/>
@@ -9844,7 +9854,7 @@
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A419" s="4"/>
-      <c r="B419" s="4"/>
+      <c r="B419" s="20"/>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
@@ -9866,7 +9876,7 @@
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A420" s="7"/>
-      <c r="B420" s="7"/>
+      <c r="B420" s="19"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="6"/>
@@ -9888,7 +9898,7 @@
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A421" s="4"/>
-      <c r="B421" s="4"/>
+      <c r="B421" s="20"/>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
@@ -9910,7 +9920,7 @@
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A422" s="7"/>
-      <c r="B422" s="7"/>
+      <c r="B422" s="19"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="6"/>
@@ -9932,7 +9942,7 @@
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A423" s="4"/>
-      <c r="B423" s="4"/>
+      <c r="B423" s="20"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
@@ -9954,7 +9964,7 @@
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A424" s="7"/>
-      <c r="B424" s="7"/>
+      <c r="B424" s="19"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="6"/>
@@ -9976,7 +9986,7 @@
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A425" s="4"/>
-      <c r="B425" s="4"/>
+      <c r="B425" s="20"/>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
@@ -9998,7 +10008,7 @@
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A426" s="7"/>
-      <c r="B426" s="7"/>
+      <c r="B426" s="19"/>
       <c r="C426" s="7"/>
       <c r="D426" s="7"/>
       <c r="E426" s="6"/>
@@ -10020,7 +10030,7 @@
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A427" s="4"/>
-      <c r="B427" s="4"/>
+      <c r="B427" s="20"/>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
@@ -10042,7 +10052,7 @@
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A428" s="7"/>
-      <c r="B428" s="7"/>
+      <c r="B428" s="19"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="6"/>
@@ -10064,7 +10074,7 @@
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A429" s="4"/>
-      <c r="B429" s="4"/>
+      <c r="B429" s="20"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
@@ -10086,7 +10096,7 @@
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A430" s="7"/>
-      <c r="B430" s="7"/>
+      <c r="B430" s="19"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="6"/>
@@ -10108,7 +10118,7 @@
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A431" s="4"/>
-      <c r="B431" s="4"/>
+      <c r="B431" s="20"/>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
@@ -10130,7 +10140,7 @@
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A432" s="7"/>
-      <c r="B432" s="7"/>
+      <c r="B432" s="19"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="6"/>
@@ -10152,7 +10162,7 @@
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A433" s="4"/>
-      <c r="B433" s="4"/>
+      <c r="B433" s="20"/>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
@@ -10174,7 +10184,7 @@
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A434" s="7"/>
-      <c r="B434" s="7"/>
+      <c r="B434" s="19"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="6"/>
@@ -10196,7 +10206,7 @@
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A435" s="4"/>
-      <c r="B435" s="4"/>
+      <c r="B435" s="20"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
@@ -10218,7 +10228,7 @@
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A436" s="7"/>
-      <c r="B436" s="7"/>
+      <c r="B436" s="19"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="6"/>
@@ -10240,7 +10250,7 @@
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A437" s="4"/>
-      <c r="B437" s="4"/>
+      <c r="B437" s="20"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
@@ -10262,7 +10272,7 @@
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A438" s="7"/>
-      <c r="B438" s="7"/>
+      <c r="B438" s="19"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="6"/>
@@ -10284,7 +10294,7 @@
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A439" s="4"/>
-      <c r="B439" s="4"/>
+      <c r="B439" s="20"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
@@ -10306,7 +10316,7 @@
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A440" s="7"/>
-      <c r="B440" s="7"/>
+      <c r="B440" s="19"/>
       <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="6"/>
@@ -10328,7 +10338,7 @@
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A441" s="4"/>
-      <c r="B441" s="4"/>
+      <c r="B441" s="20"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
@@ -10350,7 +10360,7 @@
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A442" s="7"/>
-      <c r="B442" s="7"/>
+      <c r="B442" s="19"/>
       <c r="C442" s="7"/>
       <c r="D442" s="7"/>
       <c r="E442" s="6"/>
@@ -10372,7 +10382,7 @@
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A443" s="4"/>
-      <c r="B443" s="4"/>
+      <c r="B443" s="20"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
@@ -10394,7 +10404,7 @@
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A444" s="7"/>
-      <c r="B444" s="7"/>
+      <c r="B444" s="19"/>
       <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="6"/>
@@ -10416,7 +10426,7 @@
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A445" s="4"/>
-      <c r="B445" s="4"/>
+      <c r="B445" s="20"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
@@ -10438,7 +10448,7 @@
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A446" s="7"/>
-      <c r="B446" s="7"/>
+      <c r="B446" s="19"/>
       <c r="C446" s="7"/>
       <c r="D446" s="7"/>
       <c r="E446" s="6"/>
@@ -10460,7 +10470,7 @@
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A447" s="4"/>
-      <c r="B447" s="4"/>
+      <c r="B447" s="20"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
@@ -10482,7 +10492,7 @@
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A448" s="7"/>
-      <c r="B448" s="7"/>
+      <c r="B448" s="19"/>
       <c r="C448" s="7"/>
       <c r="D448" s="7"/>
       <c r="E448" s="6"/>
@@ -10504,7 +10514,7 @@
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A449" s="4"/>
-      <c r="B449" s="4"/>
+      <c r="B449" s="20"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
@@ -10526,7 +10536,7 @@
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A450" s="7"/>
-      <c r="B450" s="7"/>
+      <c r="B450" s="19"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="6"/>
@@ -10548,7 +10558,7 @@
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A451" s="4"/>
-      <c r="B451" s="4"/>
+      <c r="B451" s="20"/>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
@@ -10570,7 +10580,7 @@
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A452" s="7"/>
-      <c r="B452" s="7"/>
+      <c r="B452" s="19"/>
       <c r="C452" s="7"/>
       <c r="D452" s="7"/>
       <c r="E452" s="6"/>
@@ -10592,7 +10602,7 @@
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A453" s="4"/>
-      <c r="B453" s="4"/>
+      <c r="B453" s="20"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
@@ -10614,7 +10624,7 @@
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A454" s="7"/>
-      <c r="B454" s="7"/>
+      <c r="B454" s="19"/>
       <c r="C454" s="7"/>
       <c r="D454" s="7"/>
       <c r="E454" s="6"/>
@@ -10636,7 +10646,7 @@
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A455" s="4"/>
-      <c r="B455" s="4"/>
+      <c r="B455" s="20"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
@@ -10658,7 +10668,7 @@
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A456" s="7"/>
-      <c r="B456" s="7"/>
+      <c r="B456" s="19"/>
       <c r="C456" s="7"/>
       <c r="D456" s="7"/>
       <c r="E456" s="6"/>
@@ -10680,7 +10690,7 @@
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A457" s="4"/>
-      <c r="B457" s="4"/>
+      <c r="B457" s="20"/>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
@@ -10702,7 +10712,7 @@
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A458" s="7"/>
-      <c r="B458" s="7"/>
+      <c r="B458" s="19"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="6"/>
@@ -10724,7 +10734,7 @@
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A459" s="4"/>
-      <c r="B459" s="4"/>
+      <c r="B459" s="20"/>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
@@ -10746,7 +10756,7 @@
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A460" s="7"/>
-      <c r="B460" s="7"/>
+      <c r="B460" s="19"/>
       <c r="C460" s="7"/>
       <c r="D460" s="7"/>
       <c r="E460" s="6"/>
@@ -10768,7 +10778,7 @@
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A461" s="4"/>
-      <c r="B461" s="4"/>
+      <c r="B461" s="20"/>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
@@ -10790,7 +10800,7 @@
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A462" s="7"/>
-      <c r="B462" s="7"/>
+      <c r="B462" s="19"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="6"/>
@@ -10812,7 +10822,7 @@
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A463" s="4"/>
-      <c r="B463" s="4"/>
+      <c r="B463" s="20"/>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
@@ -10834,7 +10844,7 @@
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A464" s="7"/>
-      <c r="B464" s="7"/>
+      <c r="B464" s="19"/>
       <c r="C464" s="7"/>
       <c r="D464" s="7"/>
       <c r="E464" s="6"/>
@@ -10856,7 +10866,7 @@
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A465" s="4"/>
-      <c r="B465" s="4"/>
+      <c r="B465" s="20"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
@@ -10878,7 +10888,7 @@
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A466" s="7"/>
-      <c r="B466" s="7"/>
+      <c r="B466" s="19"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="6"/>
@@ -10900,7 +10910,7 @@
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A467" s="4"/>
-      <c r="B467" s="4"/>
+      <c r="B467" s="20"/>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
@@ -10922,7 +10932,7 @@
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A468" s="7"/>
-      <c r="B468" s="7"/>
+      <c r="B468" s="19"/>
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
       <c r="E468" s="6"/>
@@ -10944,7 +10954,7 @@
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A469" s="4"/>
-      <c r="B469" s="4"/>
+      <c r="B469" s="20"/>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
@@ -10966,7 +10976,7 @@
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A470" s="7"/>
-      <c r="B470" s="7"/>
+      <c r="B470" s="19"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="6"/>
@@ -10988,7 +10998,7 @@
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A471" s="4"/>
-      <c r="B471" s="4"/>
+      <c r="B471" s="20"/>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
@@ -11010,7 +11020,7 @@
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A472" s="7"/>
-      <c r="B472" s="7"/>
+      <c r="B472" s="19"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="6"/>
@@ -11032,7 +11042,7 @@
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A473" s="4"/>
-      <c r="B473" s="4"/>
+      <c r="B473" s="20"/>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
@@ -11054,7 +11064,7 @@
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A474" s="7"/>
-      <c r="B474" s="7"/>
+      <c r="B474" s="19"/>
       <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="6"/>
@@ -11076,7 +11086,7 @@
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A475" s="4"/>
-      <c r="B475" s="4"/>
+      <c r="B475" s="20"/>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
@@ -11098,7 +11108,7 @@
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A476" s="7"/>
-      <c r="B476" s="7"/>
+      <c r="B476" s="19"/>
       <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="6"/>
@@ -11120,7 +11130,7 @@
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A477" s="4"/>
-      <c r="B477" s="4"/>
+      <c r="B477" s="20"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
@@ -11142,7 +11152,7 @@
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A478" s="7"/>
-      <c r="B478" s="7"/>
+      <c r="B478" s="19"/>
       <c r="C478" s="7"/>
       <c r="D478" s="7"/>
       <c r="E478" s="6"/>
@@ -11164,7 +11174,7 @@
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A479" s="4"/>
-      <c r="B479" s="4"/>
+      <c r="B479" s="20"/>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
@@ -11186,7 +11196,7 @@
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A480" s="7"/>
-      <c r="B480" s="7"/>
+      <c r="B480" s="19"/>
       <c r="C480" s="7"/>
       <c r="D480" s="7"/>
       <c r="E480" s="6"/>
@@ -11207,34 +11217,39 @@
       <c r="N480" s="7"/>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input invalid" error="Total should be greater than 0" sqref="I1:I1048576" xr:uid="{8A9EF7FA-9A89-4744-A79A-82C08E532854}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Unit price should be greater than 0" sqref="G1:G1048576" xr:uid="{D2F3A8F6-0EF1-4262-9F0A-FBFD5E6E6FAD}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Amount should be greater than 0" sqref="H1:H1048576" xr:uid="{A7FB059C-6AEB-432E-A63B-865A9330F056}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{146FA466-9E26-48A9-949B-0252AB269825}">
+          <x14:formula1>
+            <xm:f>List!$E$3:$E$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>List!$B$3:$B$9</xm:f>
+            <xm:f>List!$B$3:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D480</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DDD68461-6E17-4B10-8E17-BC491BAA84E0}">
           <x14:formula1>
-            <xm:f>List!$E$3:$E$6</xm:f>
+            <xm:f>List!$B$16:$B$19</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F480</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>List!$B$13:$B$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>K3:K6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>List!$E$13:$E$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>J3:J480</xm:sqref>
+          <xm:sqref>N3:N1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11244,10 +11259,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11257,16 +11272,17 @@
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="4.6640625" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -11299,14 +11315,14 @@
         <v>4</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -11336,12 +11352,12 @@
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -11370,13 +11386,13 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
+      <c r="B4" s="22" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -11405,13 +11421,13 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+      <c r="B5" s="22" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -11440,13 +11456,13 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
+      <c r="B6" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -11475,12 +11491,14 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
+      <c r="B7" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -11508,12 +11526,14 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
+      <c r="B8" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -11541,9 +11561,6 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -11604,14 +11621,10 @@
       <c r="AC10" s="5"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="A11" s="10"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="D11" s="10"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -11639,19 +11652,11 @@
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -11679,14 +11684,10 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -11713,15 +11714,13 @@
       <c r="AC13" s="5"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -11745,15 +11744,15 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
+      <c r="A15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -11779,13 +11778,11 @@
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -11811,13 +11808,11 @@
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -11842,7 +11837,9 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -11870,7 +11867,9 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -11924,6 +11923,10 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/fileTemplate/Financial Planning_v1.0.xlsx
+++ b/src/main/resources/fileTemplate/Financial Planning_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\fin-planning-backend\src\main\resources\fileTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA763ED2-5C20-4156-AB2E-A95D90D8599F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A480880E-62F5-4C8F-8ED9-A8CC252A20C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2064" yWindow="720" windowWidth="20520" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expense" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>DATE</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Marketing</t>
   </si>
   <si>
     <t>Department</t>
@@ -103,36 +97,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>Indirect Costs.</t>
-  </si>
-  <si>
-    <t>Administration Costs.</t>
-  </si>
-  <si>
-    <t>Operating Costs.</t>
-  </si>
-  <si>
-    <t>Maintenance Costs.</t>
-  </si>
-  <si>
-    <t>Manufacturing costs</t>
-  </si>
-  <si>
-    <t>Direct Costs.</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -158,7 +122,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.000\ [$₫-42A];\-#,##0.000\ [$₫-42A]"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -297,25 +261,25 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -601,7 +565,7 @@
   <dimension ref="A1:N480"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,37 +588,37 @@
   <sheetData>
     <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:14" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>0</v>
@@ -666,34 +630,34 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -8360,19 +8324,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{146FA466-9E26-48A9-949B-0252AB269825}">
-          <x14:formula1>
-            <xm:f>List!$E$3:$E$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>List!$B$3:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D480</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DDD68461-6E17-4B10-8E17-BC491BAA84E0}">
           <x14:formula1>
             <xm:f>List!$B$16:$B$19</xm:f>
@@ -8390,7 +8342,7 @@
   <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8407,17 +8359,17 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="10" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -8447,21 +8399,21 @@
         <v>4</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -8487,18 +8439,16 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>1</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -8524,18 +8474,16 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="21" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" s="21"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>2</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -8561,18 +8509,16 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="B5" s="21"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>3</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -8598,18 +8544,16 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
-        <v>33</v>
-      </c>
+      <c r="B6" s="21"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>4</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -8635,14 +8579,10 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="21" t="s">
-        <v>6</v>
-      </c>
+      <c r="B7" s="21"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -8670,14 +8610,10 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="21" t="s">
-        <v>34</v>
-      </c>
+      <c r="B8" s="21"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>

--- a/src/main/resources/fileTemplate/Financial Planning_v1.0.xlsx
+++ b/src/main/resources/fileTemplate/Financial Planning_v1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\fin-planning-backend\src\main\resources\fileTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A480880E-62F5-4C8F-8ED9-A8CC252A20C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A397D280-0CD0-4791-B72C-A603120EC5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expense" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>DATE</t>
   </si>
@@ -100,19 +100,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Waiting for approval</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>Denied</t>
+    <t>Code</t>
   </si>
 </sst>
 </file>
@@ -564,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N480"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8341,8 +8329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8444,12 +8432,8 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -8479,12 +8463,8 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -8514,12 +8494,8 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -8549,12 +8525,8 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>4</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>

--- a/src/main/resources/fileTemplate/Financial Planning_v1.0.xlsx
+++ b/src/main/resources/fileTemplate/Financial Planning_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\fin-planning-backend\src\main\resources\fileTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8079E0-B3F3-4DCE-B4D4-99D3FC4734C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1617A7E5-777E-4175-9906-ECE262C3CD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>DATE</t>
   </si>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P480"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,7 +615,9 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
@@ -9284,7 +9286,7 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="decimal" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input invalid" error="Total should be greater than 0" sqref="J1:K1 J481:J1048576 K481:K1048576" xr:uid="{8A9EF7FA-9A89-4744-A79A-82C08E532854}">
+    <dataValidation type="decimal" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Input invalid" error="Total should be greater than 0" sqref="J481:K1048576 J1" xr:uid="{8A9EF7FA-9A89-4744-A79A-82C08E532854}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" errorStyle="warning" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid" error="Unit price should be greater than 0" sqref="H1 H481:H1048576" xr:uid="{D2F3A8F6-0EF1-4262-9F0A-FBFD5E6E6FAD}">
